--- a/data/areas.xlsx
+++ b/data/areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
@@ -15697,8 +15697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:AX50"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18012,31 +18012,31 @@
         <v>0.4</v>
       </c>
       <c r="I16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R16" s="1">
         <v>0.4</v>
@@ -18063,31 +18063,31 @@
         <v>0.4</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AE16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI16" s="1">
         <v>0.4</v>
@@ -18163,35 +18163,35 @@
       <c r="H17" s="1">
         <v>0.4</v>
       </c>
-      <c r="I17" s="1">
-        <v>0.4</v>
+      <c r="I17" s="2">
+        <v>0.8</v>
       </c>
       <c r="J17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S17" s="1">
         <v>0.4</v>
@@ -18212,34 +18212,34 @@
         <v>0.4</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI17" s="1">
         <v>0.4</v>
@@ -18315,83 +18315,83 @@
       <c r="H18" s="1">
         <v>0.4</v>
       </c>
-      <c r="I18" s="1">
-        <v>0.4</v>
+      <c r="I18" s="2">
+        <v>0.8</v>
       </c>
       <c r="J18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="U18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="V18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="W18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI18" s="1">
         <v>0.4</v>
@@ -18467,83 +18467,83 @@
       <c r="H19" s="1">
         <v>0.4</v>
       </c>
-      <c r="I19" s="1">
-        <v>0.4</v>
+      <c r="I19" s="2">
+        <v>0.8</v>
       </c>
       <c r="J19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI19" s="1">
         <v>0.4</v>
@@ -18619,80 +18619,80 @@
       <c r="H20" s="1">
         <v>0.4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>0.8</v>
       </c>
       <c r="J20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
         <v>0.8</v>
@@ -18771,32 +18771,32 @@
       <c r="H21" s="1">
         <v>0.4</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>0.8</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -18823,28 +18823,28 @@
         <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -18923,32 +18923,32 @@
       <c r="H22" s="1">
         <v>0.4</v>
       </c>
-      <c r="I22" s="2">
-        <v>0.8</v>
+      <c r="I22" s="1">
+        <v>0.4</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -18975,28 +18975,28 @@
         <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
@@ -19075,80 +19075,80 @@
       <c r="H23" s="1">
         <v>0.4</v>
       </c>
-      <c r="I23" s="2">
-        <v>0.8</v>
+      <c r="I23" s="1">
+        <v>0.4</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH23" s="1">
         <v>0</v>
@@ -19227,80 +19227,80 @@
       <c r="H24" s="1">
         <v>0.4</v>
       </c>
-      <c r="I24" s="2">
-        <v>0.8</v>
+      <c r="I24" s="1">
+        <v>0.4</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -19379,80 +19379,80 @@
       <c r="H25" s="1">
         <v>0.4</v>
       </c>
-      <c r="I25" s="2">
-        <v>0.8</v>
+      <c r="I25" s="1">
+        <v>0.4</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH25" s="1">
         <v>0</v>
@@ -19531,80 +19531,80 @@
       <c r="H26" s="1">
         <v>0.4</v>
       </c>
-      <c r="I26" s="2">
-        <v>0.8</v>
+      <c r="I26" s="1">
+        <v>0.4</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="Q26">
+        <v>0.8</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH26" s="1">
         <v>0</v>
@@ -19683,32 +19683,32 @@
       <c r="H27" s="1">
         <v>0.4</v>
       </c>
-      <c r="I27" s="2">
-        <v>0.8</v>
+      <c r="I27" s="1">
+        <v>0.4</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="Q27">
+        <v>0.8</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -19735,28 +19735,28 @@
         <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH27" s="1">
         <v>0</v>
@@ -19835,32 +19835,32 @@
       <c r="H28" s="1">
         <v>0.4</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0.8</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -19887,28 +19887,28 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AF28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AG28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -19987,80 +19987,80 @@
       <c r="H29" s="1">
         <v>0.4</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>0.8</v>
       </c>
       <c r="J29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
         <v>0.8</v>
@@ -20139,83 +20139,83 @@
       <c r="H30" s="1">
         <v>0.4</v>
       </c>
-      <c r="I30" s="1">
-        <v>0.4</v>
+      <c r="I30" s="2">
+        <v>0.8</v>
       </c>
       <c r="J30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI30" s="1">
         <v>0.4</v>
@@ -20291,83 +20291,83 @@
       <c r="H31" s="1">
         <v>0.4</v>
       </c>
-      <c r="I31" s="1">
-        <v>0.4</v>
+      <c r="I31" s="2">
+        <v>0.8</v>
       </c>
       <c r="J31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="U31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="V31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="W31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI31" s="1">
         <v>0.4</v>
@@ -20443,35 +20443,35 @@
       <c r="H32" s="1">
         <v>0.4</v>
       </c>
-      <c r="I32" s="1">
-        <v>0.4</v>
+      <c r="I32" s="2">
+        <v>0.8</v>
       </c>
       <c r="J32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S32" s="1">
         <v>0.4</v>
@@ -20492,34 +20492,34 @@
         <v>0.4</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI32" s="1">
         <v>0.4</v>
@@ -20596,31 +20596,31 @@
         <v>0.4</v>
       </c>
       <c r="I33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R33" s="1">
         <v>0.4</v>
@@ -20647,31 +20647,31 @@
         <v>0.4</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AE33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AG33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AH33" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI33" s="1">
         <v>0.4</v>
@@ -23307,6 +23307,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:H50 I28:Q50 Z28:AG50 I1:Q21 Q22:Q23 Z1:AG21 AG22:AG27 Z22:Z27 R1:Y23 R26:Y50 AH1:AX50">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX50">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/data/areas.xlsx
+++ b/data/areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="area1" sheetId="1" r:id="rId1"/>
@@ -8068,7 +8068,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:AX50"/>
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10251,58 +10251,58 @@
         <v>0.4</v>
       </c>
       <c r="P15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="1">
         <v>0.4</v>
@@ -10403,7 +10403,7 @@
         <v>0.4</v>
       </c>
       <c r="P16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0.4</v>
@@ -10555,7 +10555,7 @@
         <v>0.4</v>
       </c>
       <c r="P17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="1">
         <v>0.4</v>
@@ -10707,7 +10707,7 @@
         <v>0.4</v>
       </c>
       <c r="P18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0.4</v>
@@ -10859,7 +10859,7 @@
         <v>0.4</v>
       </c>
       <c r="P19" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="1">
         <v>0.4</v>
@@ -11011,7 +11011,7 @@
         <v>0.4</v>
       </c>
       <c r="P20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="1">
         <v>0.4</v>
@@ -11163,7 +11163,7 @@
         <v>0.4</v>
       </c>
       <c r="P21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="1">
         <v>0.4</v>
@@ -11315,7 +11315,7 @@
         <v>0.4</v>
       </c>
       <c r="P22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="1">
         <v>0.4</v>
@@ -11467,7 +11467,7 @@
         <v>0.4</v>
       </c>
       <c r="P23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="1">
         <v>0.4</v>
@@ -11619,7 +11619,7 @@
         <v>0.4</v>
       </c>
       <c r="P24" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="1">
         <v>0.4</v>
@@ -11771,7 +11771,7 @@
         <v>0.4</v>
       </c>
       <c r="P25" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="1">
         <v>0.4</v>
@@ -11923,7 +11923,7 @@
         <v>0.4</v>
       </c>
       <c r="P26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="1">
         <v>0.4</v>
@@ -12075,7 +12075,7 @@
         <v>0.4</v>
       </c>
       <c r="P27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="1">
         <v>0.4</v>
@@ -12227,7 +12227,7 @@
         <v>0.4</v>
       </c>
       <c r="P28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -12278,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="1">
         <v>0.4</v>
@@ -12379,7 +12379,7 @@
         <v>0.4</v>
       </c>
       <c r="P29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="1">
         <v>0.4</v>
@@ -12531,7 +12531,7 @@
         <v>0.4</v>
       </c>
       <c r="P30" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="1">
         <v>0.4</v>
@@ -12683,7 +12683,7 @@
         <v>0.4</v>
       </c>
       <c r="P31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="1">
         <v>0.4</v>
@@ -12835,58 +12835,58 @@
         <v>0.4</v>
       </c>
       <c r="P32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0.4</v>
@@ -15697,8 +15697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AS21" sqref="AS21"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18012,31 +18012,31 @@
         <v>0.4</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0.4</v>
@@ -18063,31 +18063,31 @@
         <v>0.4</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="1">
         <v>0.4</v>
@@ -18164,7 +18164,7 @@
         <v>0.4</v>
       </c>
       <c r="I17" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -18191,7 +18191,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>0.4</v>
@@ -18212,7 +18212,7 @@
         <v>0.4</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
         <v>0</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="1">
         <v>0.4</v>
@@ -18316,7 +18316,7 @@
         <v>0.4</v>
       </c>
       <c r="I18" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -18343,28 +18343,28 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="1">
         <v>0.4</v>
@@ -18468,7 +18468,7 @@
         <v>0.4</v>
       </c>
       <c r="I19" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0.4</v>
@@ -18620,7 +18620,7 @@
         <v>0.4</v>
       </c>
       <c r="I20" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -18695,31 +18695,31 @@
         <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0.4</v>
@@ -18772,31 +18772,31 @@
         <v>0.4</v>
       </c>
       <c r="I21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -18823,28 +18823,28 @@
         <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0.4</v>
@@ -18948,7 +18948,7 @@
         <v>0.4</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="1">
         <v>0.4</v>
@@ -18996,7 +18996,7 @@
         <v>0.4</v>
       </c>
       <c r="AG22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0.4</v>
@@ -19100,34 +19100,34 @@
         <v>0.4</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="1">
         <v>0.4</v>
@@ -19148,7 +19148,7 @@
         <v>0.4</v>
       </c>
       <c r="AG23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="1">
         <v>0</v>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="1">
         <v>0.4</v>
@@ -19300,7 +19300,7 @@
         <v>0.4</v>
       </c>
       <c r="AG24" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
         <v>0.4</v>
@@ -19452,7 +19452,7 @@
         <v>0.4</v>
       </c>
       <c r="AG25" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="1">
         <v>0</v>
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="1">
         <v>0.4</v>
@@ -19556,34 +19556,34 @@
         <v>0.4</v>
       </c>
       <c r="Q26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="1">
         <v>0.4</v>
@@ -19604,7 +19604,7 @@
         <v>0.4</v>
       </c>
       <c r="AG26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="1">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
         <v>0.4</v>
@@ -19708,7 +19708,7 @@
         <v>0.4</v>
       </c>
       <c r="Q27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="1">
         <v>0.4</v>
@@ -19756,7 +19756,7 @@
         <v>0.4</v>
       </c>
       <c r="AG27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="1">
         <v>0</v>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
         <v>0.4</v>
@@ -19836,31 +19836,31 @@
         <v>0.4</v>
       </c>
       <c r="I28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -19887,28 +19887,28 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
         <v>0.4</v>
@@ -19988,7 +19988,7 @@
         <v>0.4</v>
       </c>
       <c r="I29" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -20063,31 +20063,31 @@
         <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
         <v>0.4</v>
@@ -20140,7 +20140,7 @@
         <v>0.4</v>
       </c>
       <c r="I30" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -20215,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="1">
         <v>0.4</v>
@@ -20292,7 +20292,7 @@
         <v>0.4</v>
       </c>
       <c r="I31" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -20319,28 +20319,28 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="1">
         <v>0</v>
@@ -20367,7 +20367,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="1">
         <v>0.4</v>
@@ -20444,7 +20444,7 @@
         <v>0.4</v>
       </c>
       <c r="I32" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
         <v>0.4</v>
@@ -20492,7 +20492,7 @@
         <v>0.4</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="1">
         <v>0</v>
@@ -20519,7 +20519,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="1">
         <v>0.4</v>
@@ -20596,31 +20596,31 @@
         <v>0.4</v>
       </c>
       <c r="I33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0.4</v>
@@ -20647,31 +20647,31 @@
         <v>0.4</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="1">
         <v>0.4</v>
@@ -23340,7 +23340,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:AX50"/>
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31913,34 +31913,34 @@
         <v>0.4</v>
       </c>
       <c r="H7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0.4</v>
@@ -31988,34 +31988,34 @@
         <v>0.4</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="1">
         <v>0.4</v>
@@ -32065,7 +32065,7 @@
         <v>0.4</v>
       </c>
       <c r="H8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0.4</v>
@@ -32140,7 +32140,7 @@
         <v>0.4</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -32167,7 +32167,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="1">
         <v>0.4</v>
@@ -32217,7 +32217,7 @@
         <v>0.4</v>
       </c>
       <c r="H9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0.4</v>
@@ -32292,7 +32292,7 @@
         <v>0.4</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -32319,7 +32319,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
         <v>0.4</v>
@@ -32369,7 +32369,7 @@
         <v>0.4</v>
       </c>
       <c r="H10" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -32396,7 +32396,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0.4</v>
@@ -32444,7 +32444,7 @@
         <v>0.4</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
         <v>0</v>
@@ -32471,7 +32471,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="1">
         <v>0.4</v>
@@ -32521,7 +32521,7 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0.4</v>
@@ -32596,7 +32596,7 @@
         <v>0.4</v>
       </c>
       <c r="AG11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="1">
         <v>0</v>
@@ -32623,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
         <v>0.4</v>
@@ -32673,7 +32673,7 @@
         <v>0.4</v>
       </c>
       <c r="H12" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0.4</v>
@@ -32748,7 +32748,7 @@
         <v>0.4</v>
       </c>
       <c r="AG12" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="1">
         <v>0</v>
@@ -32775,7 +32775,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
         <v>0.4</v>
@@ -32825,7 +32825,7 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -32852,7 +32852,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0.4</v>
@@ -32900,7 +32900,7 @@
         <v>0.4</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="1">
         <v>0</v>
@@ -32927,7 +32927,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
         <v>0.4</v>
@@ -32977,7 +32977,7 @@
         <v>0.4</v>
       </c>
       <c r="H14" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0.4</v>
@@ -33052,7 +33052,7 @@
         <v>0.4</v>
       </c>
       <c r="AG14" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="1">
         <v>0</v>
@@ -33079,7 +33079,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
         <v>0.4</v>
@@ -33129,7 +33129,7 @@
         <v>0.4</v>
       </c>
       <c r="H15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -33156,7 +33156,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0.4</v>
@@ -33204,7 +33204,7 @@
         <v>0.4</v>
       </c>
       <c r="AG15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
@@ -33231,7 +33231,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0.4</v>
@@ -33281,34 +33281,34 @@
         <v>0.4</v>
       </c>
       <c r="H16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0.4</v>
@@ -33356,34 +33356,34 @@
         <v>0.4</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1">
         <v>0.4</v>
@@ -35561,34 +35561,34 @@
         <v>0.4</v>
       </c>
       <c r="H31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0.4</v>
@@ -35633,34 +35633,34 @@
         <v>0.4</v>
       </c>
       <c r="AF31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP31" s="1">
         <v>0.4</v>
@@ -35713,7 +35713,7 @@
         <v>0.4</v>
       </c>
       <c r="H32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
         <v>0.4</v>
@@ -35785,7 +35785,7 @@
         <v>0.4</v>
       </c>
       <c r="AF32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="1">
         <v>0</v>
@@ -35812,7 +35812,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP32" s="1">
         <v>0.4</v>
@@ -35865,7 +35865,7 @@
         <v>0.4</v>
       </c>
       <c r="H33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0.4</v>
@@ -35937,7 +35937,7 @@
         <v>0.4</v>
       </c>
       <c r="AF33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="1">
         <v>0</v>
@@ -35964,7 +35964,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP33" s="1">
         <v>0.4</v>
@@ -36017,7 +36017,7 @@
         <v>0.4</v>
       </c>
       <c r="H34" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0.4</v>
@@ -36089,7 +36089,7 @@
         <v>0.4</v>
       </c>
       <c r="AF34" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="1">
         <v>0</v>
@@ -36116,7 +36116,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="1">
         <v>0.4</v>
@@ -36169,7 +36169,7 @@
         <v>0.4</v>
       </c>
       <c r="H35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0.4</v>
@@ -36241,7 +36241,7 @@
         <v>0.4</v>
       </c>
       <c r="AF35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="1">
         <v>0</v>
@@ -36268,7 +36268,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP35" s="1">
         <v>0.4</v>
@@ -36321,7 +36321,7 @@
         <v>0.4</v>
       </c>
       <c r="H36" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -36348,7 +36348,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0.4</v>
@@ -36393,7 +36393,7 @@
         <v>0.4</v>
       </c>
       <c r="AF36" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="1">
         <v>0</v>
@@ -36420,7 +36420,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="1">
         <v>0.4</v>
@@ -36473,7 +36473,7 @@
         <v>0.4</v>
       </c>
       <c r="H37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0.4</v>
@@ -36545,7 +36545,7 @@
         <v>0.4</v>
       </c>
       <c r="AF37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="1">
         <v>0</v>
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="1">
         <v>0.4</v>
@@ -36625,7 +36625,7 @@
         <v>0.4</v>
       </c>
       <c r="H38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -36652,7 +36652,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0.4</v>
@@ -36697,7 +36697,7 @@
         <v>0.4</v>
       </c>
       <c r="AF38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="1">
         <v>0</v>
@@ -36724,7 +36724,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP38" s="1">
         <v>0.4</v>
@@ -36777,7 +36777,7 @@
         <v>0.4</v>
       </c>
       <c r="H39" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -36804,7 +36804,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0.4</v>
@@ -36849,7 +36849,7 @@
         <v>0.4</v>
       </c>
       <c r="AF39" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="1">
         <v>0</v>
@@ -36876,7 +36876,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP39" s="1">
         <v>0.4</v>
@@ -36929,34 +36929,34 @@
         <v>0.4</v>
       </c>
       <c r="H40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0.4</v>
@@ -37001,34 +37001,34 @@
         <v>0.4</v>
       </c>
       <c r="AF40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO40" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP40" s="1">
         <v>0.4</v>
@@ -38599,8 +38599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:AX50"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AZ25" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39260,13 +39260,13 @@
         <v>0.4</v>
       </c>
       <c r="O5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0.4</v>
@@ -39275,13 +39275,13 @@
         <v>0.4</v>
       </c>
       <c r="T5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0.4</v>
@@ -39290,13 +39290,13 @@
         <v>0.4</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
         <v>0.4</v>
@@ -39305,7 +39305,7 @@
         <v>0.4</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
         <v>0.4</v>
@@ -39411,59 +39411,59 @@
       <c r="N6" s="1">
         <v>0.4</v>
       </c>
-      <c r="O6" s="1">
-        <v>0.8</v>
+      <c r="O6" s="2">
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG6" s="1">
         <v>0.4</v>
@@ -39564,7 +39564,7 @@
         <v>0.4</v>
       </c>
       <c r="O7" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -39612,10 +39612,10 @@
         <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
         <v>0.4</v>
@@ -39715,14 +39715,14 @@
       <c r="N8" s="1">
         <v>0.4</v>
       </c>
-      <c r="O8" s="2">
-        <v>0.8</v>
+      <c r="O8" s="1">
+        <v>0.4</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -39731,13 +39731,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -39746,13 +39746,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -39761,13 +39761,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0.4</v>
@@ -39867,59 +39867,59 @@
       <c r="N9" s="1">
         <v>0.4</v>
       </c>
-      <c r="O9" s="2">
-        <v>0.8</v>
+      <c r="O9" s="1">
+        <v>0.4</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
       </c>
-      <c r="AF9" s="2">
-        <v>0.8</v>
+      <c r="AF9" s="1">
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0.4</v>
@@ -40019,59 +40019,59 @@
       <c r="N10" s="1">
         <v>0.4</v>
       </c>
-      <c r="O10" s="2">
-        <v>0.8</v>
+      <c r="O10" s="1">
+        <v>0.4</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0.4</v>
@@ -40171,59 +40171,59 @@
       <c r="N11" s="1">
         <v>0.4</v>
       </c>
-      <c r="O11" s="2">
-        <v>0.8</v>
+      <c r="O11" s="1">
+        <v>0.4</v>
       </c>
       <c r="P11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
       </c>
       <c r="AF11" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="1">
         <v>0.4</v>
@@ -40323,59 +40323,59 @@
       <c r="N12" s="1">
         <v>0.4</v>
       </c>
-      <c r="O12" s="1">
-        <v>0.4</v>
+      <c r="O12" s="2">
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
       </c>
       <c r="AG12" s="1">
         <v>0.4</v>
@@ -40475,53 +40475,53 @@
       <c r="N13" s="1">
         <v>0.4</v>
       </c>
-      <c r="O13" s="1">
-        <v>0.4</v>
+      <c r="O13" s="2">
+        <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>0.4</v>
@@ -40627,14 +40627,14 @@
       <c r="N14" s="1">
         <v>0.4</v>
       </c>
-      <c r="O14" s="1">
-        <v>0.4</v>
+      <c r="O14" s="2">
+        <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0.4</v>
@@ -40643,13 +40643,13 @@
         <v>0.4</v>
       </c>
       <c r="T14" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>0.4</v>
@@ -40657,14 +40657,14 @@
       <c r="X14" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0.4</v>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
       </c>
       <c r="AB14" s="1">
         <v>0.4</v>
@@ -40672,8 +40672,8 @@
       <c r="AC14" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD14" s="1">
-        <v>0.4</v>
+      <c r="AD14" s="2">
+        <v>1</v>
       </c>
       <c r="AE14" s="1">
         <v>0.4</v>
@@ -40753,22 +40753,22 @@
         <v>0.4</v>
       </c>
       <c r="F15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.4</v>
       </c>
       <c r="L15" s="1">
         <v>0.4</v>
@@ -40843,22 +40843,22 @@
         <v>0.4</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0.4</v>
       </c>
       <c r="AP15" s="1">
         <v>0.4</v>
@@ -40893,34 +40893,34 @@
         <v>0.4</v>
       </c>
       <c r="B16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>0.4</v>
       </c>
       <c r="F16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>0.4</v>
@@ -40995,34 +40995,34 @@
         <v>0.4</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN16" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AP16" s="1">
         <v>0.4</v>
       </c>
-      <c r="AQ16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0.4</v>
+      <c r="AQ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0.4</v>
@@ -41045,25 +41045,25 @@
         <v>0.4</v>
       </c>
       <c r="B17" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -41072,7 +41072,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0.4</v>
@@ -41147,7 +41147,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
@@ -41156,25 +41156,25 @@
         <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1">
         <v>0.4</v>
@@ -41197,25 +41197,25 @@
         <v>0.4</v>
       </c>
       <c r="B18" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -41224,7 +41224,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>0.4</v>
@@ -41299,7 +41299,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
@@ -41308,25 +41308,25 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0.4</v>
@@ -41352,19 +41352,19 @@
         <v>0.4</v>
       </c>
       <c r="C19" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -41373,10 +41373,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L19" s="1">
         <v>0.4</v>
@@ -41451,10 +41451,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -41463,19 +41463,19 @@
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="1">
         <v>0.4</v>
@@ -41504,19 +41504,19 @@
         <v>0.4</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -41525,10 +41525,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L20" s="1">
         <v>0.4</v>
@@ -41603,10 +41603,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -41615,19 +41615,19 @@
         <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="1">
         <v>0.4</v>
@@ -41653,25 +41653,25 @@
         <v>0.4</v>
       </c>
       <c r="B21" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -41680,7 +41680,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <v>0.4</v>
@@ -41755,7 +41755,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ21" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -41764,25 +41764,25 @@
         <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0.4</v>
@@ -41805,25 +41805,25 @@
         <v>0.4</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -41832,7 +41832,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <v>0.4</v>
@@ -41907,7 +41907,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ22" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
@@ -41916,25 +41916,25 @@
         <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <v>0.4</v>
@@ -41957,25 +41957,25 @@
         <v>0.4</v>
       </c>
       <c r="B23" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -41984,7 +41984,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <v>0.4</v>
@@ -42059,7 +42059,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="1">
         <v>0</v>
@@ -42068,25 +42068,25 @@
         <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1">
         <v>0.4</v>
@@ -42112,19 +42112,19 @@
         <v>0.4</v>
       </c>
       <c r="C24" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -42133,10 +42133,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.4</v>
       </c>
       <c r="L24" s="1">
         <v>0.4</v>
@@ -42211,10 +42211,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -42223,19 +42223,19 @@
         <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="1">
         <v>0.4</v>
@@ -42264,19 +42264,19 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -42284,11 +42284,11 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.8</v>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.4</v>
       </c>
       <c r="L25" s="1">
         <v>0.4</v>
@@ -42363,10 +42363,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -42375,19 +42375,19 @@
         <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>1</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR25" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>1</v>
       </c>
       <c r="AS25" s="1">
         <v>0.4</v>
@@ -42413,25 +42413,25 @@
         <v>0.4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -42440,7 +42440,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>0.4</v>
@@ -42515,7 +42515,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
@@ -42524,25 +42524,25 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0.4</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>1</v>
       </c>
       <c r="AT26" s="1">
         <v>0.4</v>
@@ -42565,25 +42565,25 @@
         <v>0.4</v>
       </c>
       <c r="B27" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -42592,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>0.4</v>
@@ -42667,7 +42667,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ27" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
@@ -42676,25 +42676,25 @@
         <v>0</v>
       </c>
       <c r="AM27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0.4</v>
       </c>
       <c r="AP27" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
         <v>0.4</v>
@@ -42717,25 +42717,25 @@
         <v>0.4</v>
       </c>
       <c r="B28" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -42744,7 +42744,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>0.4</v>
@@ -42819,7 +42819,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="1">
         <v>0</v>
@@ -42828,25 +42828,25 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0.4</v>
       </c>
       <c r="AP28" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1</v>
       </c>
       <c r="AT28" s="1">
         <v>0.4</v>
@@ -42872,19 +42872,19 @@
         <v>0.4</v>
       </c>
       <c r="C29" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -42892,11 +42892,11 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.8</v>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.4</v>
       </c>
       <c r="L29" s="1">
         <v>0.4</v>
@@ -42971,10 +42971,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -42983,19 +42983,19 @@
         <v>0</v>
       </c>
       <c r="AN29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>1</v>
       </c>
       <c r="AP29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR29" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>1</v>
       </c>
       <c r="AS29" s="1">
         <v>0.4</v>
@@ -43024,19 +43024,19 @@
         <v>0.4</v>
       </c>
       <c r="C30" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -43044,11 +43044,11 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.8</v>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.4</v>
       </c>
       <c r="L30" s="1">
         <v>0.4</v>
@@ -43123,10 +43123,10 @@
         <v>0.4</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -43135,19 +43135,19 @@
         <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>1</v>
       </c>
       <c r="AP30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR30" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>1</v>
       </c>
       <c r="AS30" s="1">
         <v>0.4</v>
@@ -43173,25 +43173,25 @@
         <v>0.4</v>
       </c>
       <c r="B31" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -43200,7 +43200,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
         <v>0.4</v>
@@ -43275,7 +43275,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
@@ -43284,25 +43284,25 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>1</v>
       </c>
       <c r="AP31" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>1</v>
       </c>
       <c r="AT31" s="1">
         <v>0.4</v>
@@ -43331,28 +43331,28 @@
         <v>0.4</v>
       </c>
       <c r="D32" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.4</v>
       </c>
       <c r="L32" s="1">
         <v>0.4</v>
@@ -43427,28 +43427,28 @@
         <v>0.4</v>
       </c>
       <c r="AJ32" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK32" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AL32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AO32" s="2">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>1</v>
       </c>
       <c r="AR32" s="1">
         <v>0.4</v>
@@ -43483,22 +43483,22 @@
         <v>0.4</v>
       </c>
       <c r="D33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
       </c>
       <c r="J33" s="1">
         <v>0.4</v>
@@ -43516,13 +43516,13 @@
         <v>0.4</v>
       </c>
       <c r="O33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0.4</v>
@@ -43531,13 +43531,13 @@
         <v>0.4</v>
       </c>
       <c r="T33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0.4</v>
@@ -43546,13 +43546,13 @@
         <v>0.4</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="1">
         <v>0.4</v>
@@ -43561,7 +43561,7 @@
         <v>0.4</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="1">
         <v>0.4</v>
@@ -43585,22 +43585,22 @@
         <v>0.4</v>
       </c>
       <c r="AL33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AN33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ33" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>0.4</v>
@@ -43667,53 +43667,53 @@
       <c r="N34" s="1">
         <v>0.4</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.4</v>
+      <c r="O34" s="2">
+        <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="1">
         <v>0.4</v>
@@ -43819,59 +43819,59 @@
       <c r="N35" s="1">
         <v>0.4</v>
       </c>
-      <c r="O35" s="1">
-        <v>0.8</v>
+      <c r="O35" s="2">
+        <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="1">
         <v>0.4</v>
@@ -43971,14 +43971,14 @@
       <c r="N36" s="1">
         <v>0.4</v>
       </c>
-      <c r="O36" s="2">
-        <v>0.8</v>
+      <c r="O36" s="1">
+        <v>0.4</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -43987,13 +43987,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
@@ -44002,13 +44002,13 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -44017,13 +44017,13 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="1">
         <v>0.4</v>
@@ -44123,59 +44123,59 @@
       <c r="N37" s="1">
         <v>0.4</v>
       </c>
-      <c r="O37" s="2">
-        <v>0.8</v>
+      <c r="O37" s="1">
+        <v>0.4</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="1">
         <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="1">
         <v>0.4</v>
@@ -44275,59 +44275,59 @@
       <c r="N38" s="1">
         <v>0.4</v>
       </c>
-      <c r="O38" s="2">
-        <v>0.8</v>
+      <c r="O38" s="1">
+        <v>0.4</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="1">
         <v>0</v>
       </c>
       <c r="AF38" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="1">
         <v>0.4</v>
@@ -44427,14 +44427,14 @@
       <c r="N39" s="1">
         <v>0.4</v>
       </c>
-      <c r="O39" s="2">
-        <v>0.8</v>
+      <c r="O39" s="1">
+        <v>0.4</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -44442,14 +44442,14 @@
       <c r="S39" s="1">
         <v>0</v>
       </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -44458,13 +44458,13 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="1">
         <v>0</v>
@@ -44473,13 +44473,13 @@
         <v>0</v>
       </c>
       <c r="AD39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="1">
         <v>0</v>
       </c>
       <c r="AF39" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="1">
         <v>0.4</v>
@@ -44580,58 +44580,58 @@
         <v>0.4</v>
       </c>
       <c r="O40" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
       </c>
       <c r="AE40" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="1">
         <v>0.4</v>
@@ -44731,53 +44731,53 @@
       <c r="N41" s="1">
         <v>0.4</v>
       </c>
-      <c r="O41" s="1">
-        <v>0.4</v>
+      <c r="O41" s="2">
+        <v>1</v>
       </c>
       <c r="P41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>1</v>
       </c>
       <c r="AD41" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="1">
         <v>0.4</v>
@@ -44883,14 +44883,14 @@
       <c r="N42" s="1">
         <v>0.4</v>
       </c>
-      <c r="O42" s="1">
-        <v>0.4</v>
+      <c r="O42" s="2">
+        <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
         <v>0.4</v>
@@ -44899,13 +44899,13 @@
         <v>0.4</v>
       </c>
       <c r="T42" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V42" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
         <v>0.4</v>
@@ -44913,14 +44913,14 @@
       <c r="X42" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0.4</v>
+      <c r="Y42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1</v>
       </c>
       <c r="AB42" s="1">
         <v>0.4</v>
@@ -44928,8 +44928,8 @@
       <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD42" s="1">
-        <v>0.4</v>
+      <c r="AD42" s="2">
+        <v>1</v>
       </c>
       <c r="AE42" s="1">
         <v>0.4</v>
@@ -46209,6 +46209,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="T40:V50 T37:V38 W37:AA50 T1:AA36 A1:S50 AB1:AX50">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX50">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/data/areas.xlsx
+++ b/data/areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="area1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -43,101 +43,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6014,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6025,99 +5937,99 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F1" s="1">
         <v>0.4</v>
       </c>
       <c r="G1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L1" s="1">
         <v>0.4</v>
       </c>
       <c r="M1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R1" s="1">
         <v>0.4</v>
       </c>
       <c r="S1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X1" s="1">
         <v>0.4</v>
       </c>
       <c r="Y1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD1" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -6129,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="1">
         <v>0.4</v>
       </c>
       <c r="G2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -6147,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="1">
         <v>0.4</v>
       </c>
       <c r="M2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -6165,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R2" s="1">
         <v>0.4</v>
       </c>
       <c r="S2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
@@ -6183,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X2" s="1">
         <v>0.4</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
@@ -6204,12 +6116,12 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -6221,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="1">
         <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6239,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L3" s="1">
         <v>0.4</v>
       </c>
       <c r="M3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -6257,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R3" s="1">
         <v>0.4</v>
       </c>
       <c r="S3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -6275,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X3" s="1">
         <v>0.4</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
@@ -6296,12 +6208,12 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -6313,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="1">
         <v>0.4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -6331,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="1">
         <v>0.4</v>
       </c>
       <c r="M4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -6349,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R4" s="1">
         <v>0.4</v>
       </c>
       <c r="S4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -6367,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X4" s="1">
         <v>0.4</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -6388,99 +6300,99 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="1">
         <v>0.4</v>
       </c>
       <c r="G5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="1">
         <v>0.4</v>
       </c>
       <c r="M5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R5" s="1">
         <v>0.4</v>
       </c>
       <c r="S5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X5" s="1">
         <v>0.4</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -6577,99 +6489,99 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="1">
         <v>0.4</v>
       </c>
       <c r="G7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="1">
         <v>0.4</v>
       </c>
       <c r="M7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R7" s="1">
         <v>0.4</v>
       </c>
       <c r="S7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X7" s="1">
         <v>0.4</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -6681,13 +6593,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="1">
         <v>0.4</v>
       </c>
       <c r="G8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -6699,13 +6611,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="1">
         <v>0.4</v>
       </c>
       <c r="M8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -6717,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R8" s="1">
         <v>0.4</v>
       </c>
       <c r="S8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -6735,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X8" s="1">
         <v>0.4</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -6756,12 +6668,12 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -6773,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="1">
         <v>0.4</v>
       </c>
       <c r="G9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -6791,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="1">
         <v>0.4</v>
       </c>
       <c r="M9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -6809,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R9" s="1">
         <v>0.4</v>
       </c>
       <c r="S9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -6827,13 +6739,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X9" s="1">
         <v>0.4</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
@@ -6848,12 +6760,12 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -6865,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="1">
         <v>0.4</v>
       </c>
       <c r="G10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -6883,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="1">
         <v>0.4</v>
       </c>
       <c r="M10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -6901,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R10" s="1">
         <v>0.4</v>
       </c>
       <c r="S10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -6919,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X10" s="1">
         <v>0.4</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -6940,99 +6852,99 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="1">
         <v>0.4</v>
       </c>
       <c r="G11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L11" s="1">
         <v>0.4</v>
       </c>
       <c r="M11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R11" s="1">
         <v>0.4</v>
       </c>
       <c r="S11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X11" s="1">
         <v>0.4</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -7129,99 +7041,99 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F13" s="1">
         <v>0.4</v>
       </c>
       <c r="G13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L13" s="1">
         <v>0.4</v>
       </c>
       <c r="M13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R13" s="1">
         <v>0.4</v>
       </c>
       <c r="S13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X13" s="1">
         <v>0.4</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -7233,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="1">
         <v>0.4</v>
       </c>
       <c r="G14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -7251,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L14" s="1">
         <v>0.4</v>
       </c>
       <c r="M14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -7269,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R14" s="1">
         <v>0.4</v>
       </c>
       <c r="S14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -7287,13 +7199,13 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X14" s="1">
         <v>0.4</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -7308,12 +7220,12 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -7325,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="1">
         <v>0.4</v>
       </c>
       <c r="G15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -7343,13 +7255,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L15" s="1">
         <v>0.4</v>
       </c>
       <c r="M15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -7361,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R15" s="1">
         <v>0.4</v>
       </c>
       <c r="S15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -7379,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X15" s="1">
         <v>0.4</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z15" s="1">
         <v>0</v>
@@ -7400,12 +7312,12 @@
         <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -7417,13 +7329,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F16" s="1">
         <v>0.4</v>
       </c>
       <c r="G16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -7435,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L16" s="1">
         <v>0.4</v>
       </c>
       <c r="M16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -7453,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R16" s="1">
         <v>0.4</v>
       </c>
       <c r="S16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -7471,13 +7383,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X16" s="1">
         <v>0.4</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -7492,99 +7404,99 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F17" s="1">
         <v>0.4</v>
       </c>
       <c r="G17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L17" s="1">
         <v>0.4</v>
       </c>
       <c r="M17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R17" s="1">
         <v>0.4</v>
       </c>
       <c r="S17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X17" s="1">
         <v>0.4</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -7681,99 +7593,99 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="1">
         <v>0.4</v>
       </c>
       <c r="G19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L19" s="1">
         <v>0.4</v>
       </c>
       <c r="M19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R19" s="1">
         <v>0.4</v>
       </c>
       <c r="S19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X19" s="1">
         <v>0.4</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -7785,13 +7697,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="1">
         <v>0.4</v>
       </c>
       <c r="G20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -7803,13 +7715,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L20" s="1">
         <v>0.4</v>
       </c>
       <c r="M20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -7821,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R20" s="1">
         <v>0.4</v>
       </c>
       <c r="S20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -7839,13 +7751,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X20" s="1">
         <v>0.4</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -7860,12 +7772,12 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -7877,13 +7789,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="1">
         <v>0.4</v>
       </c>
       <c r="G21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -7895,13 +7807,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L21" s="1">
         <v>0.4</v>
       </c>
       <c r="M21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -7913,13 +7825,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R21" s="1">
         <v>0.4</v>
       </c>
       <c r="S21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -7931,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X21" s="1">
         <v>0.4</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -7952,12 +7864,12 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -7969,13 +7881,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="1">
         <v>0.4</v>
       </c>
       <c r="G22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -7987,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L22" s="1">
         <v>0.4</v>
       </c>
       <c r="M22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -8005,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R22" s="1">
         <v>0.4</v>
       </c>
       <c r="S22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -8023,13 +7935,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X22" s="1">
         <v>0.4</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -8044,99 +7956,99 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="1">
         <v>0.4</v>
       </c>
       <c r="G23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L23" s="1">
         <v>0.4</v>
       </c>
       <c r="M23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R23" s="1">
         <v>0.4</v>
       </c>
       <c r="S23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X23" s="1">
         <v>0.4</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -8233,99 +8145,99 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="1">
         <v>0.4</v>
       </c>
       <c r="G25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L25" s="1">
         <v>0.4</v>
       </c>
       <c r="M25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R25" s="1">
         <v>0.4</v>
       </c>
       <c r="S25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X25" s="1">
         <v>0.4</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -8337,13 +8249,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F26" s="1">
         <v>0.4</v>
       </c>
       <c r="G26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -8355,13 +8267,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L26" s="1">
         <v>0.4</v>
       </c>
       <c r="M26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -8373,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R26" s="1">
         <v>0.4</v>
       </c>
       <c r="S26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -8391,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X26" s="1">
         <v>0.4</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
@@ -8412,12 +8324,12 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -8429,13 +8341,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F27" s="1">
         <v>0.4</v>
       </c>
       <c r="G27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -8447,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L27" s="1">
         <v>0.4</v>
       </c>
       <c r="M27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -8465,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R27" s="1">
         <v>0.4</v>
       </c>
       <c r="S27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -8483,13 +8395,13 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X27" s="1">
         <v>0.4</v>
       </c>
       <c r="Y27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
@@ -8504,12 +8416,12 @@
         <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -8521,13 +8433,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F28" s="1">
         <v>0.4</v>
       </c>
       <c r="G28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -8539,13 +8451,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L28" s="1">
         <v>0.4</v>
       </c>
       <c r="M28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -8557,13 +8469,13 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R28" s="1">
         <v>0.4</v>
       </c>
       <c r="S28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -8575,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X28" s="1">
         <v>0.4</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -8596,12 +8508,12 @@
         <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -8613,13 +8525,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F29" s="1">
         <v>0.4</v>
       </c>
       <c r="G29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -8631,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L29" s="1">
         <v>0.4</v>
       </c>
       <c r="M29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -8649,13 +8561,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R29" s="1">
         <v>0.4</v>
       </c>
       <c r="S29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -8667,13 +8579,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X29" s="1">
         <v>0.4</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z29" s="1">
         <v>0</v>
@@ -8688,99 +8600,99 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F30" s="1">
         <v>0.4</v>
       </c>
       <c r="G30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L30" s="1">
         <v>0.4</v>
       </c>
       <c r="M30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R30" s="1">
         <v>0.4</v>
       </c>
       <c r="S30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X30" s="1">
         <v>0.4</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -8802,595 +8714,403 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:AJ35"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="46" width="2.85546875" customWidth="1"/>
+    <col min="1" max="30" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="A1" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="I1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="K1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="L1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="N1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="O1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="P1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="U1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="V1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="W1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="X1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AG1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AJ1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AK1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AL1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AN1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AO1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AP1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AQ1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AR1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AS1" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AT1" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="5">
-        <v>0.4</v>
+    <row r="1" spans="1:30">
+      <c r="A1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1">
+        <v>0.8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="1">
         <v>0.4</v>
       </c>
       <c r="G2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L2" s="1">
         <v>0.4</v>
       </c>
       <c r="M2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="1">
         <v>0.4</v>
       </c>
       <c r="S2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X2" s="1">
         <v>0.4</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1">
+        <v>0.8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="1">
         <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L3" s="1">
         <v>0.4</v>
       </c>
       <c r="M3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R3" s="1">
         <v>0.4</v>
       </c>
       <c r="S3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X3" s="1">
         <v>0.4</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1">
+        <v>0.8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="1">
         <v>0.4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L4" s="1">
         <v>0.4</v>
       </c>
       <c r="M4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R4" s="1">
         <v>0.4</v>
       </c>
       <c r="S4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X4" s="1">
         <v>0.4</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT4" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1">
+        <v>0.8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="1">
         <v>0.8</v>
@@ -9408,7 +9128,7 @@
         <v>0.8</v>
       </c>
       <c r="L5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M5" s="1">
         <v>0.8</v>
@@ -9426,7 +9146,7 @@
         <v>0.8</v>
       </c>
       <c r="R5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="1">
         <v>0.8</v>
@@ -9444,7 +9164,7 @@
         <v>0.8</v>
       </c>
       <c r="X5" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" s="1">
         <v>0.8</v>
@@ -9464,57 +9184,9 @@
       <c r="AD5" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1">
         <v>0.4</v>
       </c>
       <c r="B6" s="1">
@@ -9530,153 +9202,105 @@
         <v>0.4</v>
       </c>
       <c r="F6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT6" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="A7" s="5">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1">
+        <v>0.8</v>
       </c>
       <c r="B7" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C7" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="1">
         <v>0.8</v>
@@ -9685,10 +9309,10 @@
         <v>0.8</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="1">
         <v>0.8</v>
@@ -9697,22 +9321,22 @@
         <v>0.8</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="1">
         <v>0.8</v>
       </c>
       <c r="R7" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="1">
         <v>0.8</v>
@@ -9721,10 +9345,10 @@
         <v>0.8</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" s="1">
         <v>0.8</v>
@@ -9733,10 +9357,10 @@
         <v>0.8</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC7" s="1">
         <v>0.8</v>
@@ -9744,377 +9368,233 @@
       <c r="AD7" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT7" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1">
+        <v>0.8</v>
       </c>
       <c r="B8" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="1">
         <v>0.8</v>
       </c>
       <c r="H8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0.8</v>
       </c>
       <c r="L8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M8" s="1">
         <v>0.8</v>
       </c>
       <c r="N8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>0.8</v>
       </c>
       <c r="R8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S8" s="1">
         <v>0.8</v>
       </c>
       <c r="T8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0.8</v>
       </c>
       <c r="X8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y8" s="1">
         <v>0.8</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT8" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46">
-      <c r="A9" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1">
+        <v>0.8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="1">
         <v>0.8</v>
       </c>
       <c r="H9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0.8</v>
       </c>
       <c r="L9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M9" s="1">
         <v>0.8</v>
       </c>
       <c r="N9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <v>0.8</v>
       </c>
       <c r="R9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S9" s="1">
         <v>0.8</v>
       </c>
       <c r="T9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>0.8</v>
       </c>
       <c r="X9" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y9" s="1">
         <v>0.8</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT9" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
-      <c r="A10" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1">
+        <v>0.8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M10" s="1">
         <v>0.8</v>
       </c>
       <c r="N10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -10126,31 +9606,31 @@
         <v>0.8</v>
       </c>
       <c r="R10" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y10" s="1">
         <v>0.8</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -10159,84 +9639,36 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT10" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="A11" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1">
+        <v>0.8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C11" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="1">
         <v>0.8</v>
@@ -10245,10 +9677,10 @@
         <v>0.8</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M11" s="1">
         <v>0.8</v>
@@ -10257,22 +9689,22 @@
         <v>0.8</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" s="1">
         <v>0.8</v>
       </c>
       <c r="R11" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U11" s="1">
         <v>0.8</v>
@@ -10281,10 +9713,10 @@
         <v>0.8</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y11" s="1">
         <v>0.8</v>
@@ -10293,10 +9725,10 @@
         <v>0.8</v>
       </c>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC11" s="1">
         <v>0.8</v>
@@ -10304,57 +9736,9 @@
       <c r="AD11" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT11" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1">
         <v>0.4</v>
       </c>
       <c r="B12" s="1">
@@ -10370,147 +9754,99 @@
         <v>0.4</v>
       </c>
       <c r="F12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT12" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="5">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1">
+        <v>0.8</v>
       </c>
       <c r="B13" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C13" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="1">
         <v>0.8</v>
@@ -10528,7 +9864,7 @@
         <v>0.8</v>
       </c>
       <c r="L13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M13" s="1">
         <v>0.8</v>
@@ -10546,7 +9882,7 @@
         <v>0.8</v>
       </c>
       <c r="R13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S13" s="1">
         <v>0.8</v>
@@ -10564,7 +9900,7 @@
         <v>0.8</v>
       </c>
       <c r="X13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y13" s="1">
         <v>0.8</v>
@@ -10584,97 +9920,49 @@
       <c r="AD13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT13" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="A14" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1">
+        <v>0.8</v>
       </c>
       <c r="B14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M14" s="1">
         <v>0.8</v>
       </c>
       <c r="N14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -10686,31 +9974,31 @@
         <v>0.8</v>
       </c>
       <c r="R14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y14" s="1">
         <v>0.8</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
         <v>0</v>
@@ -10719,102 +10007,54 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT14" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="A15" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1">
+        <v>0.8</v>
       </c>
       <c r="B15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M15" s="1">
         <v>0.8</v>
       </c>
       <c r="N15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
@@ -10826,31 +10066,31 @@
         <v>0.8</v>
       </c>
       <c r="R15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y15" s="1">
         <v>0.8</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
@@ -10859,218 +10099,122 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT15" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1">
+        <v>0.8</v>
       </c>
       <c r="B16" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G16" s="1">
         <v>0.8</v>
       </c>
       <c r="H16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0.8</v>
       </c>
       <c r="L16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M16" s="1">
         <v>0.8</v>
       </c>
       <c r="N16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
         <v>0.8</v>
       </c>
       <c r="R16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S16" s="1">
         <v>0.8</v>
       </c>
       <c r="T16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>0.8</v>
       </c>
       <c r="X16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y16" s="1">
         <v>0.8</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT16" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
-      <c r="A17" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
+        <v>0.8</v>
       </c>
       <c r="B17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G17" s="1">
         <v>0.8</v>
@@ -11088,7 +10232,7 @@
         <v>0.8</v>
       </c>
       <c r="L17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M17" s="1">
         <v>0.8</v>
@@ -11106,7 +10250,7 @@
         <v>0.8</v>
       </c>
       <c r="R17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S17" s="1">
         <v>0.8</v>
@@ -11124,7 +10268,7 @@
         <v>0.8</v>
       </c>
       <c r="X17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y17" s="1">
         <v>0.8</v>
@@ -11144,57 +10288,9 @@
       <c r="AD17" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT17" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1">
         <v>0.4</v>
       </c>
       <c r="B18" s="1">
@@ -11210,153 +10306,105 @@
         <v>0.4</v>
       </c>
       <c r="F18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT18" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
-      <c r="A19" s="5">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1">
+        <v>0.8</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I19" s="1">
         <v>0.8</v>
@@ -11365,10 +10413,10 @@
         <v>0.8</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M19" s="1">
         <v>0.8</v>
@@ -11377,22 +10425,22 @@
         <v>0.8</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" s="1">
         <v>0.8</v>
       </c>
       <c r="R19" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U19" s="1">
         <v>0.8</v>
@@ -11401,10 +10449,10 @@
         <v>0.8</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y19" s="1">
         <v>0.8</v>
@@ -11413,10 +10461,10 @@
         <v>0.8</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC19" s="1">
         <v>0.8</v>
@@ -11424,377 +10472,233 @@
       <c r="AD19" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT19" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46">
-      <c r="A20" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1">
+        <v>0.8</v>
       </c>
       <c r="B20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G20" s="1">
         <v>0.8</v>
       </c>
       <c r="H20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>0.8</v>
       </c>
       <c r="L20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M20" s="1">
         <v>0.8</v>
       </c>
       <c r="N20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
         <v>0.8</v>
       </c>
       <c r="R20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S20" s="1">
         <v>0.8</v>
       </c>
       <c r="T20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
         <v>0.8</v>
       </c>
       <c r="X20" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y20" s="1">
         <v>0.8</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT20" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
-      <c r="A21" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1">
+        <v>0.8</v>
       </c>
       <c r="B21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G21" s="1">
         <v>0.8</v>
       </c>
       <c r="H21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>0.8</v>
       </c>
       <c r="L21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M21" s="1">
         <v>0.8</v>
       </c>
       <c r="N21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>0.8</v>
       </c>
       <c r="R21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S21" s="1">
         <v>0.8</v>
       </c>
       <c r="T21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0.8</v>
       </c>
       <c r="X21" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" s="1">
         <v>0.8</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT21" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46">
-      <c r="A22" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1">
+        <v>0.8</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M22" s="1">
         <v>0.8</v>
       </c>
       <c r="N22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -11806,31 +10710,31 @@
         <v>0.8</v>
       </c>
       <c r="R22" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" s="1">
         <v>0.8</v>
       </c>
       <c r="Z22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="1">
         <v>0</v>
@@ -11839,84 +10743,36 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT22" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
-      <c r="A23" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1">
+        <v>0.8</v>
       </c>
       <c r="B23" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D23" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="1">
         <v>0.8</v>
@@ -11925,10 +10781,10 @@
         <v>0.8</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M23" s="1">
         <v>0.8</v>
@@ -11937,22 +10793,22 @@
         <v>0.8</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q23" s="1">
         <v>0.8</v>
       </c>
       <c r="R23" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U23" s="1">
         <v>0.8</v>
@@ -11961,10 +10817,10 @@
         <v>0.8</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y23" s="1">
         <v>0.8</v>
@@ -11973,10 +10829,10 @@
         <v>0.8</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC23" s="1">
         <v>0.8</v>
@@ -11984,57 +10840,9 @@
       <c r="AD23" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT23" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1">
         <v>0.4</v>
       </c>
       <c r="B24" s="1">
@@ -12050,147 +10858,99 @@
         <v>0.4</v>
       </c>
       <c r="F24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="X24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT24" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46">
-      <c r="A25" s="5">
-        <v>0.4</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1">
+        <v>0.8</v>
       </c>
       <c r="B25" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G25" s="1">
         <v>0.8</v>
@@ -12208,7 +10968,7 @@
         <v>0.8</v>
       </c>
       <c r="L25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M25" s="1">
         <v>0.8</v>
@@ -12226,7 +10986,7 @@
         <v>0.8</v>
       </c>
       <c r="R25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S25" s="1">
         <v>0.8</v>
@@ -12244,7 +11004,7 @@
         <v>0.8</v>
       </c>
       <c r="X25" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y25" s="1">
         <v>0.8</v>
@@ -12264,97 +11024,49 @@
       <c r="AD25" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT25" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46">
-      <c r="A26" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1">
+        <v>0.8</v>
       </c>
       <c r="B26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M26" s="1">
         <v>0.8</v>
       </c>
       <c r="N26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
@@ -12366,31 +11078,31 @@
         <v>0.8</v>
       </c>
       <c r="R26" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y26" s="1">
         <v>0.8</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1">
         <v>0</v>
@@ -12399,102 +11111,54 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT26" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46">
-      <c r="A27" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1">
+        <v>0.8</v>
       </c>
       <c r="B27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M27" s="1">
         <v>0.8</v>
       </c>
       <c r="N27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -12506,31 +11170,31 @@
         <v>0.8</v>
       </c>
       <c r="R27" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y27" s="1">
         <v>0.8</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="1">
         <v>0</v>
@@ -12539,364 +11203,220 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT27" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46">
-      <c r="A28" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1">
+        <v>0.8</v>
       </c>
       <c r="B28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="1">
         <v>0.8</v>
       </c>
       <c r="H28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>0.8</v>
       </c>
       <c r="L28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M28" s="1">
         <v>0.8</v>
       </c>
       <c r="N28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
         <v>0.8</v>
       </c>
       <c r="R28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S28" s="1">
         <v>0.8</v>
       </c>
       <c r="T28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
         <v>0.8</v>
       </c>
       <c r="X28" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y28" s="1">
         <v>0.8</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT28" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
-      <c r="A29" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1">
+        <v>0.8</v>
       </c>
       <c r="B29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G29" s="1">
         <v>0.8</v>
       </c>
       <c r="H29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>0.8</v>
       </c>
       <c r="L29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M29" s="1">
         <v>0.8</v>
       </c>
       <c r="N29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
         <v>0.8</v>
       </c>
       <c r="R29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S29" s="1">
         <v>0.8</v>
       </c>
       <c r="T29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>0.8</v>
       </c>
       <c r="X29" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y29" s="1">
         <v>0.8</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT29" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46">
-      <c r="A30" s="5">
-        <v>0.4</v>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1">
+        <v>0.8</v>
       </c>
       <c r="B30" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C30" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D30" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I30" s="1">
         <v>0.8</v>
@@ -12905,10 +11425,10 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M30" s="1">
         <v>0.8</v>
@@ -12917,22 +11437,22 @@
         <v>0.8</v>
       </c>
       <c r="O30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q30" s="1">
         <v>0.8</v>
       </c>
       <c r="R30" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U30" s="1">
         <v>0.8</v>
@@ -12941,10 +11461,10 @@
         <v>0.8</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y30" s="1">
         <v>0.8</v>
@@ -12953,10 +11473,10 @@
         <v>0.8</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC30" s="1">
         <v>0.8</v>
@@ -12964,2298 +11484,10 @@
       <c r="AD30" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT30" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46">
-      <c r="A31" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT31" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46">
-      <c r="A32" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT32" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46">
-      <c r="A33" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT33" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46">
-      <c r="A34" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT34" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
-      <c r="A35" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT35" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
-      <c r="A36" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT36" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46">
-      <c r="A37" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT37" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46">
-      <c r="A38" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT38" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
-      <c r="A39" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT39" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46">
-      <c r="A40" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS40" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT40" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46">
-      <c r="A41" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT41" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46">
-      <c r="A42" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT42" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46">
-      <c r="A43" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT43" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46">
-      <c r="A44" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT44" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46">
-      <c r="A45" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="U45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="X45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AH45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AK45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AL45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AM45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AN45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AO45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AP45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AQ45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AR45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AT45" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A46" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="B46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="M46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="N46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="O46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="P46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="R46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="S46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="T46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="U46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="V46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="W46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="X46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Y46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Z46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AA46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AB46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AC46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AD46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AE46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AF46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AG46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AH46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AI46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AJ46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AK46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AL46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AM46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AN46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AO46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AP46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AQ46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AR46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AS46" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AT46" s="9">
-        <v>0.4</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AT46">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="A1:AD30">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
